--- a/5_mail/学習.xlsx
+++ b/5_mail/学習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\5_mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC808B-3A30-45E4-9029-871C7E319756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2454F3C0-BAF5-4BA3-92AC-C8143E0EF919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3435" yWindow="900" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>EHLO</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,34 @@
   </si>
   <si>
     <t>EHLOコマンドの場合、サーバーが拡張された仕様に対応している場合は、対応している内容が返されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S/MIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化技術と電子署名を使った安全に電子メールを送受信するための規格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主に銀行のようなセキュリティが重要なメールの送受信で採用されている方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールの送信者と受信者が S/MIME に対応しているメーラー（メールソフト）を使う必要がありますが、Microsoft社のOutlookやiPhone・iPadのメーラーなど多くのメーラーが対応しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S/MIMEを使用して通信内容を暗号化することで、仮に通信内容を盗聴されたとしてもメールの内容は暗号化されているため解読することは困難です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信者は、送信者と受信者の間で使用する「共通の鍵」を生成します。そして、生成した「共通の鍵」でメールを暗号化します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化したメールと「共通の鍵」を送信します。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -369,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -405,6 +433,44 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
